--- a/State-Abbr.xlsx
+++ b/State-Abbr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,279 +8,379 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b152fc3b8be8d161/Documents/GitHub/walmart-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{8065CB73-FB88-43A2-91E4-781E3F40BD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A3FBE4D1-86A1-47F6-9D8B-AECD1623EA4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C1A80C-D18F-4BB0-B830-1B0F9EA7884B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12216" yWindow="3324" windowWidth="9408" windowHeight="10044" xr2:uid="{0A452FB4-591E-46CE-940B-0DF29E0D7E1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="State-Abbr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'State-Abbr'!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t>ABBR</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>FIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kan.</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N.M.</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colo.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohio</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neb.</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N.D.</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wash.</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ark.</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okla.</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texas</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miss.</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.D.</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ind.</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nev.</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mo.</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W.Va.</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ga.</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tenn.</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La.</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fla.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Md.</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ill.</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wis.</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N.Y.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.C.</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Idaho</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N.C.</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mich.</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ala.</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ky.</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minn.</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iowa</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calif.</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ore.</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wyo.</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utah</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mont.</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ariz.</t>
+  </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ariz.</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mont.</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utah</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wyo.</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ore.</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Calif.</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iowa</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minn.</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ky.</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ala.</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mich.</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N.C.</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Idaho</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S.C.</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N.Y.</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wis.</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ill.</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Md.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fla.</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La.</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tenn.</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ga.</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> W.Va.</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mo.</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nev.</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ind.</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S.D.</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Miss.</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Texas</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okla.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ark.</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wash.</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N.D.</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neb.</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ohio</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Colo.</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N.M.</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kan.</t>
-  </si>
-  <si>
-    <t>ABBR</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>FIPS</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,16 +388,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,16 +705,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,225 +1213,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6360CB-E25E-4F18-896D-5E79DD9848AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1">
         <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,223 +1436,223 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{A7A981BE-137D-4C20-82C1-0C1AEEC87E2C}"/>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/State-Abbr.xlsx
+++ b/State-Abbr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b152fc3b8be8d161/Documents/GitHub/walmart-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C1A80C-D18F-4BB0-B830-1B0F9EA7884B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{26C1A80C-D18F-4BB0-B830-1B0F9EA7884B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0520BFF3-485B-4C27-A45D-01DEFF5F6C43}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State-Abbr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'State-Abbr'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'State-Abbr'!$A$1:$D$39</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>ABBR</t>
   </si>
@@ -374,12 +385,129 @@
   </si>
   <si>
     <t>04</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>ABR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1213,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -1222,7 +1350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1232,8 +1360,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1243,8 +1374,11 @@
       <c r="C2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1254,8 +1388,11 @@
       <c r="C3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1402,11 @@
       <c r="C4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1276,8 +1416,11 @@
       <c r="C5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1430,11 @@
       <c r="C6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1298,8 +1444,11 @@
       <c r="C7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1309,8 +1458,11 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1472,11 @@
       <c r="C9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1331,8 +1486,11 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1342,8 +1500,11 @@
       <c r="C11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1353,8 +1514,11 @@
       <c r="C12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1364,8 +1528,11 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1375,8 +1542,11 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1386,8 +1556,11 @@
       <c r="C15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1397,8 +1570,11 @@
       <c r="C16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1408,8 +1584,11 @@
       <c r="C17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1419,8 +1598,11 @@
       <c r="C18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1430,8 +1612,11 @@
       <c r="C19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1441,8 +1626,11 @@
       <c r="C20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1452,8 +1640,11 @@
       <c r="C21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1463,8 +1654,11 @@
       <c r="C22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1474,8 +1668,11 @@
       <c r="C23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1485,8 +1682,11 @@
       <c r="C24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1496,8 +1696,11 @@
       <c r="C25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1507,8 +1710,11 @@
       <c r="C26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1518,8 +1724,11 @@
       <c r="C27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1529,8 +1738,11 @@
       <c r="C28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1540,8 +1752,11 @@
       <c r="C29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1551,8 +1766,11 @@
       <c r="C30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1562,8 +1780,11 @@
       <c r="C31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1573,8 +1794,11 @@
       <c r="C32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1584,8 +1808,11 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1595,8 +1822,11 @@
       <c r="C34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1606,8 +1836,11 @@
       <c r="C35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1617,8 +1850,11 @@
       <c r="C36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1628,8 +1864,11 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1639,8 +1878,11 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1650,9 +1892,12 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:D39" xr:uid="{988169B9-87B0-4776-AF5D-968014831BFC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>